--- a/rozjazdy zbiorcze.xlsx
+++ b/rozjazdy zbiorcze.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\KOKSZTYS\kwiecien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KOKSZTYS\kwiecien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10910" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Pakiet_Zlecen_WTA_2019_03_28s.s" sheetId="1" r:id="rId1"/>
     <sheet name="30.03.2019" sheetId="3" r:id="rId2"/>
     <sheet name="02.04" sheetId="2" r:id="rId3"/>
     <sheet name="03.04" sheetId="4" r:id="rId4"/>
+    <sheet name="14.04" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pakiet_Zlecen_WTA_2019_03_28s.s!$A$1:$XEZ$38</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="180">
   <si>
     <t>Izabela CHWALEBA</t>
   </si>
@@ -408,20 +409,170 @@
     <t>STABŁOWICKA 147bud2/pok0.5, 54-066 Wrocław</t>
   </si>
   <si>
-    <t>a49</t>
-  </si>
-  <si>
     <t>F/1653/10/2018/1</t>
   </si>
   <si>
     <t>Czereńczycka, Mirosławice</t>
+  </si>
+  <si>
+    <t>wykonano 12.04</t>
+  </si>
+  <si>
+    <t>DANIEL WRÓBLEWSKI</t>
+  </si>
+  <si>
+    <t>55-200</t>
+  </si>
+  <si>
+    <t>JABŁECZNA 36/8, 50-539 WROCŁAW // UL LIPOWA 30, 55-200 STANOWICE - przed Oława</t>
+  </si>
+  <si>
+    <t>3437.06</t>
+  </si>
+  <si>
+    <t>bph</t>
+  </si>
+  <si>
+    <t>ALEKSANDRA LIBERSKA</t>
+  </si>
+  <si>
+    <t>53-401</t>
+  </si>
+  <si>
+    <t>MIELECKA 1/14 WROCŁAW</t>
+  </si>
+  <si>
+    <t>4059.08</t>
+  </si>
+  <si>
+    <t>Dariusz ŻAL</t>
+  </si>
+  <si>
+    <t>55-110</t>
+  </si>
+  <si>
+    <t>PIOTRKOWICE 77, 55-110 PIOTRKOWICE</t>
+  </si>
+  <si>
+    <t>262.55</t>
+  </si>
+  <si>
+    <t>alior</t>
+  </si>
+  <si>
+    <t>Stefan Gawdzik</t>
+  </si>
+  <si>
+    <t>56-100</t>
+  </si>
+  <si>
+    <t>Sportowa 2, 56-100 Wołów  // Generała Berlinga 2, 56-100 Wołów\</t>
+  </si>
+  <si>
+    <t>3363.56</t>
+  </si>
+  <si>
+    <t>MIROSŁAW SZCZYGIEŁ</t>
+  </si>
+  <si>
+    <t>KRZYDLINA MAŁA 36, 56-100 KRZYDLINA MAŁA</t>
+  </si>
+  <si>
+    <t>9176943,609176943,</t>
+  </si>
+  <si>
+    <t>15306.22</t>
+  </si>
+  <si>
+    <t>lc</t>
+  </si>
+  <si>
+    <t>MAREK JENDYKA</t>
+  </si>
+  <si>
+    <t>54-115</t>
+  </si>
+  <si>
+    <t>GRABOWA 35, 54-115 WROCŁAW</t>
+  </si>
+  <si>
+    <t>880.60</t>
+  </si>
+  <si>
+    <t>1733.24</t>
+  </si>
+  <si>
+    <t>ALEKSANDRA DRGAS</t>
+  </si>
+  <si>
+    <t>56-200</t>
+  </si>
+  <si>
+    <t>PODWALE 41D/10 GÓRA</t>
+  </si>
+  <si>
+    <t>824.72</t>
+  </si>
+  <si>
+    <t>583.66</t>
+  </si>
+  <si>
+    <t>Jadwiga Rajnert</t>
+  </si>
+  <si>
+    <t>55-003</t>
+  </si>
+  <si>
+    <t>Parkowa 5/1 Jeszkowice // Leśna 67, 55-003 Chrząstawa Mała</t>
+  </si>
+  <si>
+    <t>22027.43</t>
+  </si>
+  <si>
+    <t>Marcin Biadala</t>
+  </si>
+  <si>
+    <t>54-207</t>
+  </si>
+  <si>
+    <t>673.15</t>
+  </si>
+  <si>
+    <t>Anna Toboła</t>
+  </si>
+  <si>
+    <t>53-614</t>
+  </si>
+  <si>
+    <t>Złotoryjska 9/16 Wrocław</t>
+  </si>
+  <si>
+    <t>2074.70</t>
+  </si>
+  <si>
+    <t>AGNIESZKA RYBAK-ŚWIAT</t>
+  </si>
+  <si>
+    <t>54-117</t>
+  </si>
+  <si>
+    <t>KRÓLEWIECKA 7/17 WROCŁAW</t>
+  </si>
+  <si>
+    <t>2737.28</t>
+  </si>
+  <si>
+    <t>Na ostatnim groszu 74/26 Wrocław // Chobienia Parkowa 4, 59-305 Rudna- przed górą</t>
+  </si>
+  <si>
+    <t>Generała Berlinga 2, 56-100 Wołów // Sportowa 2, 56-100 Wołów  //  to jest chyba ta sama ulica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,8 +798,31 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -846,6 +1020,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1035,7 +1215,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1139,11 +1319,23 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" xfId="8" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" xfId="8" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1194,6 +1386,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3399"/>
       <color rgb="FFF8A4F8"/>
     </mruColors>
   </colors>
@@ -1471,25 +1664,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEZ39"/>
+  <dimension ref="A1:XEZ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>61</v>
       </c>
@@ -1509,7 +1702,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>67</v>
       </c>
@@ -1529,7 +1722,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>70</v>
       </c>
@@ -1549,7 +1742,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>71</v>
       </c>
@@ -1572,7 +1765,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
@@ -1594,7 +1787,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>76</v>
       </c>
@@ -1612,11 +1805,11 @@
       <c r="H7" s="11">
         <v>35</v>
       </c>
-      <c r="L7" s="57" t="s">
+      <c r="L7" s="56" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="43" t="s">
         <v>106</v>
       </c>
@@ -1639,8 +1832,12 @@
       <c r="H8" s="35">
         <v>90</v>
       </c>
+      <c r="L8" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="M8" s="58"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>79</v>
       </c>
@@ -1660,8 +1857,9 @@
       <c r="H9" s="12">
         <v>65</v>
       </c>
+      <c r="M9" s="61"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>84</v>
       </c>
@@ -1680,7 +1878,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -1698,7 +1896,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="36" t="s">
         <v>120</v>
       </c>
@@ -1712,29 +1910,29 @@
       <c r="G12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="55">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="9"/>
       <c r="D13" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="5"/>
       <c r="G13" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="59">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="50">
         <v>3347145</v>
       </c>
@@ -1760,7 +1958,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="50">
         <v>3347167</v>
       </c>
@@ -1786,7 +1984,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="50">
         <v>3347032</v>
       </c>
@@ -1812,7 +2010,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="50">
         <v>3347052</v>
       </c>
@@ -1838,7 +2036,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="50">
         <v>3347173</v>
       </c>
@@ -1867,7 +2065,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="50">
         <v>3347122</v>
       </c>
@@ -1893,7 +2091,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="50">
         <v>3347037</v>
       </c>
@@ -1919,7 +2117,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="50">
         <v>3347155</v>
       </c>
@@ -1945,7 +2143,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="50">
         <v>3347148</v>
       </c>
@@ -1971,7 +2169,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="50">
         <v>3347115</v>
       </c>
@@ -1997,7 +2195,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="50">
         <v>3347196</v>
       </c>
@@ -2023,7 +2221,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3351360</v>
       </c>
@@ -2046,7 +2244,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3351400</v>
       </c>
@@ -4116,7 +4314,7 @@
       <c r="XER26" s="1"/>
       <c r="XEZ26" s="1"/>
     </row>
-    <row r="27" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3351401</v>
       </c>
@@ -6186,7 +6384,7 @@
       <c r="XER27" s="1"/>
       <c r="XEZ27" s="1"/>
     </row>
-    <row r="28" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3351376</v>
       </c>
@@ -8259,7 +8457,7 @@
       <c r="XER28" s="1"/>
       <c r="XEZ28" s="1"/>
     </row>
-    <row r="29" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3351375</v>
       </c>
@@ -10332,7 +10530,7 @@
       <c r="XER29" s="1"/>
       <c r="XEZ29" s="1"/>
     </row>
-    <row r="30" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3351377</v>
       </c>
@@ -12402,11 +12600,11 @@
       <c r="XER30" s="1"/>
       <c r="XEZ30" s="1"/>
     </row>
-    <row r="31" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
         <v>3358611</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="57" t="s">
         <v>124</v>
       </c>
       <c r="D31" s="47" t="s">
@@ -12415,7 +12613,7 @@
       <c r="G31" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="56">
+      <c r="H31" s="55">
         <v>13.4</v>
       </c>
       <c r="L31" s="47"/>
@@ -14466,7 +14664,7 @@
       <c r="XER31" s="47"/>
       <c r="XEZ31" s="47"/>
     </row>
-    <row r="32" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="54">
         <v>3358554</v>
       </c>
@@ -14477,9 +14675,9 @@
         <v>126</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" s="56">
+        <v>90</v>
+      </c>
+      <c r="H32" s="55">
         <v>13.4</v>
       </c>
       <c r="L32" s="47"/>
@@ -16530,8 +16728,8 @@
       <c r="XER32" s="47"/>
       <c r="XEZ32" s="47"/>
     </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:9" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="50">
         <v>3336243</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -16556,8 +16754,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="50">
         <v>2657108</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -16583,8 +16781,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="50">
         <v>2658998</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -16610,8 +16808,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:9" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="50">
         <v>2648986</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -16637,8 +16835,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="50">
         <v>2653601</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -16664,8 +16862,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:9" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="50">
         <v>3069249</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -16690,9 +16888,344 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="10"/>
-      <c r="D39" s="3"/>
+    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36">
+        <v>3358624</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="36">
+        <v>6140538</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" s="45">
+        <v>13.4</v>
+      </c>
+      <c r="I39" s="45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="36">
+        <v>3358628</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="36">
+        <v>408001</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="45">
+        <v>13.4</v>
+      </c>
+      <c r="I40" s="45"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="36">
+        <v>3358640</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="36">
+        <v>1059350</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="45">
+        <v>13.4</v>
+      </c>
+      <c r="I41" s="45"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="36">
+        <v>2966808</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" s="45">
+        <v>40</v>
+      </c>
+      <c r="I42" s="45"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="36">
+        <v>3359401</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" s="45">
+        <v>13.4</v>
+      </c>
+      <c r="I43" s="45"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="36">
+        <v>3359449</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="45">
+        <v>32.5</v>
+      </c>
+      <c r="I44" s="45"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="36">
+        <v>3359428</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="45">
+        <v>32.5</v>
+      </c>
+      <c r="I45" s="45"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="36">
+        <v>3359485</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="45">
+        <v>45</v>
+      </c>
+      <c r="I46" s="45"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="36">
+        <v>3359483</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="45">
+        <v>45</v>
+      </c>
+      <c r="I47" s="45"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="36">
+        <v>3359508</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" s="45">
+        <v>65</v>
+      </c>
+      <c r="I48" s="45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="36">
+        <v>3359491</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" s="45">
+        <v>13.4</v>
+      </c>
+      <c r="I49" s="45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="36">
+        <v>3359385</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" s="45">
+        <v>13.4</v>
+      </c>
+      <c r="I50" s="45"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="36">
+        <v>3359394</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" s="45">
+        <v>65</v>
+      </c>
+      <c r="I51" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:XEZ38"/>
@@ -16709,18 +17242,18 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>67</v>
       </c>
@@ -16737,7 +17270,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
@@ -16755,18 +17288,18 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.453125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>71</v>
       </c>
@@ -16786,12 +17319,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="23"/>
       <c r="D2" s="26"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26">
         <v>3347115</v>
       </c>
@@ -16814,12 +17347,12 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="26"/>
       <c r="B4" s="23"/>
       <c r="D4" s="26"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="26">
         <v>2653601</v>
       </c>
@@ -16842,12 +17375,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26"/>
       <c r="B6" s="23"/>
       <c r="D6" s="26"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>70</v>
       </c>
@@ -16865,12 +17398,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="26"/>
       <c r="B8" s="23"/>
       <c r="D8" s="26"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26">
         <v>3336243</v>
       </c>
@@ -16893,12 +17426,12 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26"/>
       <c r="B10" s="23"/>
       <c r="D10" s="26"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26">
         <v>2648986</v>
       </c>
@@ -16921,12 +17454,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26"/>
       <c r="B12" s="23"/>
       <c r="D12" s="26"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26">
         <v>2658998</v>
       </c>
@@ -16949,12 +17482,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26"/>
       <c r="B14" s="23"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
         <v>3069249</v>
       </c>
@@ -16977,12 +17510,12 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26"/>
       <c r="B16" s="23"/>
       <c r="D16" s="26"/>
     </row>
-    <row r="17" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="33" t="s">
         <v>76</v>
       </c>
@@ -17002,12 +17535,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26"/>
       <c r="B18" s="23"/>
       <c r="D18" s="26"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26">
         <v>3347052</v>
       </c>
@@ -17030,12 +17563,12 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26"/>
       <c r="B20" s="23"/>
       <c r="D20" s="26"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="26">
         <v>3347145</v>
       </c>
@@ -17058,7 +17591,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26">
         <v>3347167</v>
       </c>
@@ -17081,7 +17614,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26">
         <v>3347032</v>
       </c>
@@ -17104,12 +17637,12 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26"/>
       <c r="B24" s="23"/>
       <c r="D24" s="26"/>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="26">
         <v>3347196</v>
       </c>
@@ -17132,12 +17665,12 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="26"/>
       <c r="B26" s="23"/>
       <c r="D26" s="26"/>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="26">
         <v>2657108</v>
       </c>
@@ -17160,12 +17693,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26"/>
       <c r="B28" s="23"/>
       <c r="D28" s="26"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26">
         <v>3347173</v>
       </c>
@@ -17191,12 +17724,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="26"/>
       <c r="B30" s="23"/>
       <c r="D30" s="26"/>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="26">
         <v>3347122</v>
       </c>
@@ -17233,18 +17766,18 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>61</v>
       </c>
@@ -17264,8 +17797,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>79</v>
       </c>
@@ -17290,8 +17823,8 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="4" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37">
         <v>3351400</v>
       </c>
@@ -19362,7 +19895,7 @@
       <c r="XER5" s="47"/>
       <c r="XEZ5" s="47"/>
     </row>
-    <row r="6" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37">
         <v>3351401</v>
       </c>
@@ -21433,7 +21966,7 @@
       <c r="XER6" s="47"/>
       <c r="XEZ6" s="47"/>
     </row>
-    <row r="7" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -21443,7 +21976,7 @@
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
     </row>
-    <row r="8" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>61</v>
       </c>
@@ -21462,8 +21995,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>84</v>
       </c>
@@ -21486,8 +22019,8 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18">
         <v>3347037</v>
       </c>
@@ -21510,7 +22043,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="13" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18">
         <v>3347155</v>
       </c>
@@ -21533,7 +22066,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -21543,7 +22076,7 @@
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
     </row>
-    <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37">
         <v>3351360</v>
       </c>
@@ -21567,7 +22100,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -21578,7 +22111,7 @@
       <c r="H16" s="37"/>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="1:8" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18">
         <v>3347148</v>
       </c>
@@ -21605,4 +22138,458 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37">
+        <v>3359401</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="45">
+        <v>13.4</v>
+      </c>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37">
+        <v>3358640</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="37">
+        <v>1059350</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="45">
+        <v>13.4</v>
+      </c>
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37">
+        <v>3359491</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="45">
+        <v>13.4</v>
+      </c>
+      <c r="I5" s="45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="37"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="37">
+        <v>3359385</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="45">
+        <v>13.4</v>
+      </c>
+      <c r="I7" s="45"/>
+    </row>
+    <row r="8" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37">
+        <v>3358628</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="37">
+        <v>408001</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="45">
+        <v>13.4</v>
+      </c>
+      <c r="I9" s="45"/>
+    </row>
+    <row r="10" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="37"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="37">
+        <v>3358624</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="37">
+        <v>6140538</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="45">
+        <v>13.4</v>
+      </c>
+      <c r="I11" s="45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="37">
+        <v>3359508</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="45">
+        <v>65</v>
+      </c>
+      <c r="I13" s="45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="37"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="37">
+        <v>3359449</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="45">
+        <v>32.5</v>
+      </c>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="37">
+        <v>3359428</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="45">
+        <v>32.5</v>
+      </c>
+      <c r="I16" s="45"/>
+    </row>
+    <row r="17" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="37"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="37">
+        <v>3359485</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="45">
+        <v>45</v>
+      </c>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="37">
+        <v>3359483</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="45">
+        <v>45</v>
+      </c>
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="37"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+    </row>
+    <row r="21" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="37">
+        <v>2966808</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="45">
+        <v>40</v>
+      </c>
+      <c r="I21" s="45"/>
+    </row>
+    <row r="22" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="37"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="37">
+        <v>3359394</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="45">
+        <v>65</v>
+      </c>
+      <c r="I23" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/rozjazdy zbiorcze.xlsx
+++ b/rozjazdy zbiorcze.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KOKSZTYS\kwiecien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\KOKSZTYS\kwiecien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10910" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10905"/>
   </bookViews>
   <sheets>
     <sheet name="Pakiet_Zlecen_WTA_2019_03_28s.s" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="232">
   <si>
     <t>Izabela CHWALEBA</t>
   </si>
@@ -732,6 +732,35 @@
   <si>
     <t>Milicz, ul. Garncarska 21/4</t>
   </si>
+  <si>
+    <t>udanin 99/5, 55-340 udanin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">koło trzebncicy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>! 19-20 !</t>
+    </r>
+  </si>
+  <si>
+    <t>wykonano 23.04</t>
+  </si>
+  <si>
+    <t>Stalowa 71/2, Wrocław</t>
+  </si>
+  <si>
+    <t>Szybowcowa 42/29, Wrocław</t>
+  </si>
 </sst>
 </file>
 
@@ -1387,7 +1416,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1526,9 +1555,16 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="31"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="31" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="19" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" xfId="31" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="31" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1856,26 +1892,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEZ83"/>
+  <dimension ref="A1:XEZ87"/>
   <sheetViews>
-    <sheetView topLeftCell="C56" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145:D151"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="R69" sqref="R69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>61</v>
       </c>
@@ -1895,7 +1931,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>67</v>
       </c>
@@ -1915,7 +1951,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>70</v>
       </c>
@@ -1935,7 +1971,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>71</v>
       </c>
@@ -1958,7 +1994,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
@@ -1980,7 +2016,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>76</v>
       </c>
@@ -2002,7 +2038,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>208</v>
       </c>
@@ -2031,7 +2067,7 @@
       </c>
       <c r="M8" s="57"/>
     </row>
-    <row r="9" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>211</v>
       </c>
@@ -2047,7 +2083,7 @@
       <c r="G9" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="74">
         <v>65</v>
       </c>
       <c r="I9" s="42" t="s">
@@ -2058,7 +2094,7 @@
       </c>
       <c r="M9" s="60"/>
     </row>
-    <row r="10" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>214</v>
       </c>
@@ -2076,7 +2112,7 @@
       <c r="G10" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="74">
         <v>90</v>
       </c>
       <c r="L10" s="68" t="s">
@@ -2084,7 +2120,7 @@
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
         <v>106</v>
       </c>
@@ -2107,8 +2143,11 @@
       <c r="H11" s="35">
         <v>90</v>
       </c>
+      <c r="L11" s="83" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>79</v>
       </c>
@@ -2129,7 +2168,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>84</v>
       </c>
@@ -2148,7 +2187,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -2166,7 +2205,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>120</v>
       </c>
@@ -2184,7 +2223,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>127</v>
       </c>
@@ -2202,7 +2241,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49">
         <v>3347145</v>
       </c>
@@ -2228,7 +2267,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49">
         <v>3347167</v>
       </c>
@@ -2254,7 +2293,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49">
         <v>3347032</v>
       </c>
@@ -2280,7 +2319,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49">
         <v>3347052</v>
       </c>
@@ -2306,7 +2345,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49">
         <v>3347173</v>
       </c>
@@ -2335,7 +2374,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
         <v>3347122</v>
       </c>
@@ -2361,7 +2400,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49">
         <v>3347037</v>
       </c>
@@ -2387,7 +2426,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49">
         <v>3347155</v>
       </c>
@@ -2413,7 +2452,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49">
         <v>3347148</v>
       </c>
@@ -2439,7 +2478,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49">
         <v>3347115</v>
       </c>
@@ -2465,7 +2504,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49">
         <v>3347196</v>
       </c>
@@ -2491,7 +2530,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3351360</v>
       </c>
@@ -2514,7 +2553,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3351400</v>
       </c>
@@ -4584,7 +4623,7 @@
       <c r="XER29" s="1"/>
       <c r="XEZ29" s="1"/>
     </row>
-    <row r="30" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3351401</v>
       </c>
@@ -6654,7 +6693,7 @@
       <c r="XER30" s="1"/>
       <c r="XEZ30" s="1"/>
     </row>
-    <row r="31" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3351376</v>
       </c>
@@ -8727,7 +8766,7 @@
       <c r="XER31" s="1"/>
       <c r="XEZ31" s="1"/>
     </row>
-    <row r="32" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3351375</v>
       </c>
@@ -10800,7 +10839,7 @@
       <c r="XER32" s="1"/>
       <c r="XEZ32" s="1"/>
     </row>
-    <row r="33" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3351377</v>
       </c>
@@ -12870,7 +12909,7 @@
       <c r="XER33" s="1"/>
       <c r="XEZ33" s="1"/>
     </row>
-    <row r="34" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53">
         <v>3358611</v>
       </c>
@@ -14934,7 +14973,7 @@
       <c r="XER34" s="46"/>
       <c r="XEZ34" s="46"/>
     </row>
-    <row r="35" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53">
         <v>3358554</v>
       </c>
@@ -16998,7 +17037,7 @@
       <c r="XER35" s="46"/>
       <c r="XEZ35" s="46"/>
     </row>
-    <row r="36" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
         <v>3336243</v>
       </c>
@@ -17024,7 +17063,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="49">
         <v>2657108</v>
       </c>
@@ -17051,7 +17090,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="49">
         <v>2658998</v>
       </c>
@@ -17078,7 +17117,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="49">
         <v>2648986</v>
       </c>
@@ -17105,7 +17144,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="49">
         <v>2653601</v>
       </c>
@@ -17132,7 +17171,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="49">
         <v>3069249</v>
       </c>
@@ -17158,7 +17197,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <v>3358624</v>
       </c>
@@ -17187,7 +17226,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>3358628</v>
       </c>
@@ -17214,7 +17253,7 @@
       </c>
       <c r="I43" s="45"/>
     </row>
-    <row r="44" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
       <c r="A44" s="36">
         <v>3358640</v>
       </c>
@@ -17241,7 +17280,7 @@
       </c>
       <c r="I44" s="45"/>
     </row>
-    <row r="45" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
       <c r="A45" s="36">
         <v>2966808</v>
       </c>
@@ -17268,7 +17307,7 @@
       </c>
       <c r="I45" s="45"/>
     </row>
-    <row r="46" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>3359401</v>
       </c>
@@ -17293,7 +17332,7 @@
       </c>
       <c r="I46" s="45"/>
     </row>
-    <row r="47" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
         <v>3359449</v>
       </c>
@@ -17318,7 +17357,7 @@
       </c>
       <c r="I47" s="45"/>
     </row>
-    <row r="48" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>3359428</v>
       </c>
@@ -17343,7 +17382,7 @@
       </c>
       <c r="I48" s="45"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>3359485</v>
       </c>
@@ -17368,7 +17407,7 @@
       </c>
       <c r="I49" s="45"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>3359483</v>
       </c>
@@ -17393,7 +17432,7 @@
       </c>
       <c r="I50" s="45"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <v>3359508</v>
       </c>
@@ -17420,7 +17459,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="36">
         <v>3359491</v>
       </c>
@@ -17447,7 +17486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="36">
         <v>3359385</v>
       </c>
@@ -17472,7 +17511,7 @@
       </c>
       <c r="I53" s="45"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="36">
         <v>3359394</v>
       </c>
@@ -17497,7 +17536,7 @@
       </c>
       <c r="I54" s="45"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="73">
         <v>3360688</v>
       </c>
@@ -17517,7 +17556,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="53">
         <v>3360687</v>
       </c>
@@ -17533,14 +17572,14 @@
       <c r="H56" s="67">
         <v>13.4</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="67">
         <v>13.4</v>
       </c>
       <c r="J56" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="53">
         <v>3360667</v>
       </c>
@@ -17557,7 +17596,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="36">
         <v>2652684</v>
       </c>
@@ -17578,7 +17617,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="36">
         <v>2642033</v>
       </c>
@@ -17603,7 +17642,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="36">
         <v>2645207</v>
       </c>
@@ -17626,7 +17665,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="36">
         <v>2656652</v>
       </c>
@@ -17651,7 +17690,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="36">
         <v>2665436</v>
       </c>
@@ -17674,7 +17713,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="36">
         <v>2663675</v>
       </c>
@@ -17699,7 +17738,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="36">
         <v>2654693</v>
       </c>
@@ -17720,7 +17759,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="36">
         <v>2630054</v>
       </c>
@@ -17743,7 +17782,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="36">
         <v>2655940</v>
       </c>
@@ -17766,7 +17805,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="36">
         <v>2665700</v>
       </c>
@@ -17789,7 +17828,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="36">
         <v>2643333</v>
       </c>
@@ -17812,7 +17851,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="36">
         <v>2652993</v>
       </c>
@@ -17833,7 +17872,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="36">
         <v>2661456</v>
       </c>
@@ -17856,7 +17895,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="36">
         <v>2653525</v>
       </c>
@@ -17877,7 +17916,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="36">
         <v>2629880</v>
       </c>
@@ -17900,7 +17939,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
         <v>2649175</v>
       </c>
@@ -17925,7 +17964,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="36">
         <v>2636782</v>
       </c>
@@ -17948,7 +17987,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="36">
         <v>2650634</v>
       </c>
@@ -17969,7 +18008,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="36">
         <v>2662965</v>
       </c>
@@ -17979,14 +18018,14 @@
       <c r="G76" t="s">
         <v>56</v>
       </c>
-      <c r="H76" s="75">
+      <c r="H76" s="74">
         <v>40</v>
       </c>
       <c r="I76" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2956021</v>
       </c>
@@ -17996,11 +18035,11 @@
       <c r="G77" t="s">
         <v>152</v>
       </c>
-      <c r="H77" s="75">
+      <c r="H77" s="74">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3367004</v>
       </c>
@@ -18014,21 +18053,25 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
         <v>3367006</v>
       </c>
-      <c r="D79" t="s">
+      <c r="B79" s="2"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G79" t="s">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H79" s="75">
-        <v>65</v>
+      <c r="H79" s="82">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3367085</v>
       </c>
@@ -18038,11 +18081,11 @@
       <c r="G80" t="s">
         <v>143</v>
       </c>
-      <c r="H80" s="75">
+      <c r="H80" s="74">
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3367081</v>
       </c>
@@ -18056,7 +18099,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3360715</v>
       </c>
@@ -18066,11 +18109,11 @@
       <c r="G82" t="s">
         <v>134</v>
       </c>
-      <c r="H82" s="75">
+      <c r="H82" s="74">
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3360785</v>
       </c>
@@ -18083,6 +18126,54 @@
       <c r="H83" s="60">
         <v>90</v>
       </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="53">
+        <v>3357165</v>
+      </c>
+      <c r="D84" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F84" s="46">
+        <v>1543.4</v>
+      </c>
+      <c r="G84" t="s">
+        <v>59</v>
+      </c>
+      <c r="H84" s="74">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3370978</v>
+      </c>
+      <c r="D85" t="s">
+        <v>230</v>
+      </c>
+      <c r="G85" t="s">
+        <v>143</v>
+      </c>
+      <c r="H85" s="60">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3371001</v>
+      </c>
+      <c r="D86" t="s">
+        <v>231</v>
+      </c>
+      <c r="G86" t="s">
+        <v>143</v>
+      </c>
+      <c r="H86" s="60">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H87" s="60"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:XEZ41"/>
@@ -18093,149 +18184,174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36">
+    <row r="1" spans="1:13" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37">
         <v>3367006</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="60">
+      <c r="H1" s="76">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36">
+    <row r="2" spans="1:13" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
         <v>3367085</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="76">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="L4" s="60"/>
+    <row r="4" spans="1:13" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="76"/>
     </row>
-    <row r="5" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:13" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="70">
+      <c r="H5" s="77">
         <v>90</v>
       </c>
-      <c r="L5" s="60"/>
+      <c r="L5" s="76"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="L6" s="60"/>
+    <row r="6" spans="1:13" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="76"/>
     </row>
-    <row r="7" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36">
+    <row r="7" spans="1:13" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="78">
+        <v>3357165</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="44">
+        <v>1543.4</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="79">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
         <v>2956021</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="36" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G9" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H9" s="76">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36">
+    <row r="10" spans="1:13" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
         <v>3360715</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="36" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G11" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H11" s="76">
         <v>65</v>
       </c>
-      <c r="L9" s="60"/>
+      <c r="L11" s="76"/>
     </row>
-    <row r="11" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36">
+    <row r="12" spans="1:13" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
         <v>2662965</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="46" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G13" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H13" s="76">
         <v>40</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I13" s="37" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:13" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D15" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="36" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="70">
+      <c r="H15" s="77">
         <v>65</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I15" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="L13" s="74"/>
-      <c r="M13" s="60"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18247,88 +18363,128 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36">
+    <row r="1" spans="1:13" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37">
         <v>3367081</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="60">
+      <c r="H1" s="76">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36">
+    <row r="2" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:13" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
         <v>3360785</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="76">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36">
+    <row r="4" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:13" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="77">
+        <v>65</v>
+      </c>
+      <c r="I5" s="42"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="60"/>
+    </row>
+    <row r="6" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:13" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
         <v>3367004</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="36" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H7" s="76">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="36" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="70">
-        <v>65</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="L7" s="76"/>
-      <c r="M7" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18340,18 +18496,18 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>67</v>
       </c>
@@ -18368,7 +18524,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
@@ -18386,18 +18542,18 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.453125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>71</v>
       </c>
@@ -18417,12 +18573,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="23"/>
       <c r="D2" s="26"/>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>3347115</v>
       </c>
@@ -18445,12 +18601,12 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="23"/>
       <c r="D4" s="26"/>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>2653601</v>
       </c>
@@ -18473,12 +18629,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="23"/>
       <c r="D6" s="26"/>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>70</v>
       </c>
@@ -18496,12 +18652,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="23"/>
       <c r="D8" s="26"/>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>3336243</v>
       </c>
@@ -18524,12 +18680,12 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="23"/>
       <c r="D10" s="26"/>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>2648986</v>
       </c>
@@ -18552,12 +18708,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="23"/>
       <c r="D12" s="26"/>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>2658998</v>
       </c>
@@ -18580,12 +18736,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="23"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>3069249</v>
       </c>
@@ -18608,12 +18764,12 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="23"/>
       <c r="D16" s="26"/>
     </row>
-    <row r="17" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>76</v>
       </c>
@@ -18633,12 +18789,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="23"/>
       <c r="D18" s="26"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>3347052</v>
       </c>
@@ -18661,12 +18817,12 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="23"/>
       <c r="D20" s="26"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>3347145</v>
       </c>
@@ -18689,7 +18845,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>3347167</v>
       </c>
@@ -18712,7 +18868,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>3347032</v>
       </c>
@@ -18735,12 +18891,12 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="23"/>
       <c r="D24" s="26"/>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>3347196</v>
       </c>
@@ -18763,12 +18919,12 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="23"/>
       <c r="D26" s="26"/>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>2657108</v>
       </c>
@@ -18791,12 +18947,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="23"/>
       <c r="D28" s="26"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>3347173</v>
       </c>
@@ -18822,12 +18978,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="23"/>
       <c r="D30" s="26"/>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>3347122</v>
       </c>
@@ -18864,18 +19020,18 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>61</v>
       </c>
@@ -18895,8 +19051,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>79</v>
       </c>
@@ -18921,8 +19077,8 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="4" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37">
         <v>3351400</v>
       </c>
@@ -20993,7 +21149,7 @@
       <c r="XER5" s="46"/>
       <c r="XEZ5" s="46"/>
     </row>
-    <row r="6" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>3351401</v>
       </c>
@@ -23064,7 +23220,7 @@
       <c r="XER6" s="46"/>
       <c r="XEZ6" s="46"/>
     </row>
-    <row r="7" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -23074,7 +23230,7 @@
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
     </row>
-    <row r="8" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>61</v>
       </c>
@@ -23093,8 +23249,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>84</v>
       </c>
@@ -23117,8 +23273,8 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>3347037</v>
       </c>
@@ -23141,7 +23297,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="13" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>3347155</v>
       </c>
@@ -23164,7 +23320,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -23174,7 +23330,7 @@
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
     </row>
-    <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37">
         <v>3351360</v>
       </c>
@@ -23198,7 +23354,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -23209,7 +23365,7 @@
       <c r="H16" s="37"/>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="1:8" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>3347148</v>
       </c>
@@ -23246,18 +23402,18 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37">
         <v>3359401</v>
       </c>
@@ -23282,7 +23438,7 @@
       </c>
       <c r="I1" s="45"/>
     </row>
-    <row r="2" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
       <c r="B2" s="23"/>
       <c r="C2" s="37"/>
@@ -23291,7 +23447,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="3" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
         <v>3358640</v>
       </c>
@@ -23318,7 +23474,7 @@
       </c>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="23"/>
       <c r="C4" s="37"/>
@@ -23327,7 +23483,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37">
         <v>3359491</v>
       </c>
@@ -23354,7 +23510,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="23"/>
       <c r="C6" s="37"/>
@@ -23363,7 +23519,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37">
         <v>3359385</v>
       </c>
@@ -23388,7 +23544,7 @@
       </c>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="23"/>
       <c r="C8" s="37"/>
@@ -23397,7 +23553,7 @@
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
     </row>
-    <row r="9" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37">
         <v>3358628</v>
       </c>
@@ -23424,7 +23580,7 @@
       </c>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="23"/>
       <c r="C10" s="37"/>
@@ -23433,7 +23589,7 @@
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
         <v>3358624</v>
       </c>
@@ -23462,7 +23618,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="23"/>
       <c r="C12" s="37"/>
@@ -23471,7 +23627,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37">
         <v>3359508</v>
       </c>
@@ -23498,7 +23654,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="23"/>
       <c r="C14" s="37"/>
@@ -23507,7 +23663,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37">
         <v>3359449</v>
       </c>
@@ -23532,7 +23688,7 @@
       </c>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>3359428</v>
       </c>
@@ -23557,7 +23713,7 @@
       </c>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="23"/>
       <c r="C17" s="37"/>
@@ -23566,7 +23722,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>3359485</v>
       </c>
@@ -23591,7 +23747,7 @@
       </c>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37">
         <v>3359483</v>
       </c>
@@ -23616,7 +23772,7 @@
       </c>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="23"/>
       <c r="C20" s="37"/>
@@ -23625,7 +23781,7 @@
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
         <v>2966808</v>
       </c>
@@ -23652,7 +23808,7 @@
       </c>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="23"/>
       <c r="C22" s="37"/>
@@ -23661,7 +23817,7 @@
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
         <v>3359394</v>
       </c>
